--- a/trunk/Docs/Templates/SpecialityDisciplinesTemplate.xlsx
+++ b/trunk/Docs/Templates/SpecialityDisciplinesTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Факультет</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>2:з, 3:э</t>
+  </si>
+  <si>
+    <t>Сокращение названия</t>
+  </si>
+  <si>
+    <t>Программная инженерия</t>
+  </si>
+  <si>
+    <t>МООП</t>
   </si>
 </sst>
 </file>
@@ -468,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,19 +489,19 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
-    <col min="13" max="13" width="44" customWidth="1"/>
-    <col min="14" max="14" width="32.5703125" customWidth="1"/>
+    <col min="5" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="44" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="54">
+    <row r="1" spans="1:15" ht="54">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -509,34 +518,37 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -552,35 +564,38 @@
       <c r="E2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -597,96 +612,99 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="G4" s="3"/>
+    <row r="4" spans="1:15">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="G5" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="G6" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="G7" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="G8" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="G9" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="D10" s="1"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="G11" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="G12" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Docs/Templates/SpecialityDisciplinesTemplate.xlsx
+++ b/trunk/Docs/Templates/SpecialityDisciplinesTemplate.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="SpecialityDisciplineStructure" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Факультет</t>
   </si>
@@ -113,6 +114,105 @@
   </si>
   <si>
     <t>МООП</t>
+  </si>
+  <si>
+    <t>Дисциплины направления: Федеральный компонент</t>
+  </si>
+  <si>
+    <t>Математический анализ</t>
+  </si>
+  <si>
+    <t>МА</t>
+  </si>
+  <si>
+    <t>ЧИФА</t>
+  </si>
+  <si>
+    <t>1:4, 2:4, 3:4, 4:4</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4</t>
+  </si>
+  <si>
+    <t>Шашков В.Н.</t>
+  </si>
+  <si>
+    <t>дфмн</t>
+  </si>
+  <si>
+    <t>кфмн</t>
+  </si>
+  <si>
+    <t>Геометрия и алгебра</t>
+  </si>
+  <si>
+    <t>ГА</t>
+  </si>
+  <si>
+    <t>МЛиВА</t>
+  </si>
+  <si>
+    <t>1:3, 2:2, 3:2</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>Шевченко В.Н.</t>
+  </si>
+  <si>
+    <t>проф</t>
+  </si>
+  <si>
+    <t>Дискретная математика</t>
+  </si>
+  <si>
+    <t>ДМ</t>
+  </si>
+  <si>
+    <t>1:1, 2:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>1:з, 2:э</t>
+  </si>
+  <si>
+    <t>Алексеев В.Е.</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>ИАНИ</t>
+  </si>
+  <si>
+    <t>2:3, 3:2</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>Кузин С.Г.</t>
+  </si>
+  <si>
+    <t>1:э, 2:э, 3:э, 4:э</t>
+  </si>
+  <si>
+    <t>1:э, 2:з, 3:э</t>
+  </si>
+  <si>
+    <t>Физическая культура</t>
+  </si>
+  <si>
+    <t>1, 2 , 3, 4</t>
+  </si>
+  <si>
+    <t>1:з, 2:з, 3:з, 4:з</t>
   </si>
 </sst>
 </file>
@@ -477,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,7 +588,7 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="6" width="32.140625" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
@@ -555,127 +655,192 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="45">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="6" t="s">
+    <row r="6" spans="1:15">
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="M6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
+      <c r="D7" s="1"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:15">
       <c r="H9" s="3"/>
@@ -685,29 +850,117 @@
       <c r="M9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="D10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="120">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="135">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>